--- a/Data/F074.IPC.VAR.Z.Z.C.M.xlsx
+++ b/Data/F074.IPC.VAR.Z.Z.C.M.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,14 +358,4503 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>indexDateString</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>statusCode</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01-01-2000</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01-02-2000</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01-03-2000</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01-04-2000</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01-05-2000</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01-06-2000</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01-07-2000</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01-08-2000</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01-09-2000</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01-10-2000</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01-11-2000</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01-12-2000</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01-01-2001</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01-02-2001</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01-03-2001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01-04-2001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01-05-2001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01-06-2001</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01-07-2001</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-0.2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01-08-2001</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01-09-2001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01-10-2001</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01-11-2001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01-12-2001</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01-01-2002</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>01-02-2002</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>01-03-2002</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>01-04-2002</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>01-05-2002</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>01-06-2002</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>01-07-2002</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>01-08-2002</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>01-09-2002</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>01-10-2002</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>01-11-2002</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>01-12-2002</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>-0.4</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>01-01-2003</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>01-02-2003</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>01-03-2003</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>01-04-2003</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>01-05-2003</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>-0.4</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>01-06-2003</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>01-07-2003</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>01-08-2003</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>01-09-2003</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>01-10-2003</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>-0.2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>01-11-2003</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01-12-2003</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01-01-2004</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>-0.2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>01-02-2004</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01-03-2004</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>01-04-2004</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>01-05-2004</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>01-06-2004</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>01-08-2004</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>01-09-2004</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>01-10-2004</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01-11-2004</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>01-12-2004</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>-0.4</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>01-01-2005</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>01-02-2005</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>01-03-2005</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>01-04-2005</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>01-05-2005</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>01-06-2005</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>01-07-2005</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>01-08-2005</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>01-09-2005</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>01-10-2005</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>01-11-2005</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>-0.2</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>01-12-2005</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>01-01-2006</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>01-02-2006</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>01-03-2006</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>01-04-2006</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>01-05-2006</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>01-06-2006</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>01-07-2006</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>01-08-2006</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>01-09-2006</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>01-10-2006</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>01-11-2006</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>-0.2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>01-12-2006</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>01-01-2007</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>01-02-2007</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>-0.2</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>01-03-2007</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>01-04-2007</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>01-05-2007</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01-06-2007</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>01-07-2007</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>01-08-2007</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>01-09-2007</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>01-10-2007</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>01-11-2007</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>01-12-2007</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>01-01-2008</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>01-02-2008</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>01-03-2008</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>01-04-2008</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>01-05-2008</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>01-06-2008</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>01-07-2008</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>01-08-2008</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>01-09-2008</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>01-10-2008</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>01-11-2008</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>01-12-2008</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>01-01-2009</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>-0.8</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>01-02-2009</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>-0.4</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>01-03-2009</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>01-04-2009</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>-0.2</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>01-05-2009</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>01-06-2009</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>01-07-2009</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>-0.4</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>01-08-2009</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>-0.4</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>01-09-2009</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>01-10-2009</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>01-11-2009</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>01-12-2009</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>01-01-2010</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>01-02-2010</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>01-03-2010</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>01-04-2010</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>01-05-2010</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>01-06-2010</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>01-07-2010</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>01-08-2010</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>01-09-2010</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>01-10-2010</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>01-11-2010</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>01-12-2010</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>01-01-2011</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>01-02-2011</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>01-03-2011</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>01-04-2011</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>01-05-2011</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>01-06-2011</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>01-07-2011</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>01-08-2011</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>01-09-2011</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>01-10-2011</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>01-11-2011</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>01-12-2011</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>01-01-2012</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>01-02-2012</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>01-03-2012</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>01-04-2012</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>01-05-2012</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>01-06-2012</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>-0.3</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>01-07-2012</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>01-08-2012</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>01-09-2012</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>01-10-2012</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>01-11-2012</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>01-12-2012</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>01-01-2013</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>01-02-2013</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>01-03-2013</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>01-04-2013</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>01-05-2013</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>01-06-2013</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>01-07-2013</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>01-08-2013</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>01-09-2013</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>01-10-2013</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>01-11-2013</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>01-12-2013</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>01-01-2014</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>01-02-2014</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>01-03-2014</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>01-04-2014</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>01-05-2014</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>01-06-2014</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>01-07-2014</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>01-08-2014</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>01-09-2014</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>01-10-2014</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>01-11-2014</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>01-12-2014</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>-0.4</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>01-01-2015</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>01-02-2015</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>01-03-2015</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>01-04-2015</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>01-05-2015</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>01-06-2015</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>01-07-2015</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>01-08-2015</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>01-09-2015</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>01-10-2015</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>01-11-2015</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>01-12-2015</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>01-01-2016</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>01-02-2016</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>01-03-2016</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>01-04-2016</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>01-05-2016</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>01-06-2016</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>01-07-2016</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>01-08-2016</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>01-09-2016</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>01-10-2016</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>01-11-2016</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>01-12-2016</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>-0.2</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>01-01-2017</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>01-02-2017</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>01-03-2017</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>01-04-2017</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>01-05-2017</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>01-06-2017</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>-0.4</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>01-07-2017</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>01-08-2017</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>01-09-2017</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>-0.2</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>01-10-2017</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>01-11-2017</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>01-12-2017</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>01-01-2018</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>01-02-2018</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>01-03-2018</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>01-04-2018</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>01-05-2018</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>01-06-2018</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>01-07-2018</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>01-08-2018</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>01-09-2018</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>01-10-2018</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>01-11-2018</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>01-12-2018</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>01-01-2019</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>01-02-2019</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>01-03-2019</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>01-04-2019</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>01-05-2019</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>01-06-2019</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>01-07-2019</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>01-08-2019</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>01-09-2019</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>01-10-2019</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>01-11-2019</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>01-12-2019</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>01-01-2020</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>01-02-2020</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>01-03-2020</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>01-04-2020</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>01-05-2020</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>01-06-2020</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>01-07-2020</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>01-08-2020</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>01-09-2020</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>01-10-2020</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>01-11-2020</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>01-12-2020</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>01-01-2021</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>01-02-2021</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>01-03-2021</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>01-04-2021</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>01-05-2021</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>01-06-2021</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>01-07-2021</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>01-08-2021</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>01-09-2021</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>01-10-2021</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>01-11-2021</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>